--- a/Team-Data/2007-08/3-24-2007-08.xlsx
+++ b/Team-Data/2007-08/3-24-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>-2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -789,16 +856,16 @@
         <v>6</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>10</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -816,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.786</v>
+        <v>0.797</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -875,31 +942,31 @@
         <v>7.2</v>
       </c>
       <c r="M3" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N3" t="n">
         <v>0.38</v>
       </c>
       <c r="O3" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P3" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="Q3" t="n">
         <v>0.77</v>
       </c>
       <c r="R3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S3" t="n">
         <v>31.6</v>
       </c>
       <c r="T3" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U3" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V3" t="n">
         <v>15.1</v>
@@ -914,19 +981,19 @@
         <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -959,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>8</v>
@@ -968,13 +1035,13 @@
         <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS3" t="n">
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1162,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
         <v>13</v>
@@ -1180,10 +1247,10 @@
         <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1323,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
@@ -1347,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1563,7 @@
         <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>10</v>
@@ -1511,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
@@ -1520,13 +1587,13 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW6" t="n">
         <v>17</v>
@@ -1535,7 +1602,7 @@
         <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1708,7 +1775,7 @@
         <v>21</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW7" t="n">
         <v>29</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -1758,49 +1825,49 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
         <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.606</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="J8" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L8" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M8" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O8" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S8" t="n">
         <v>32.5</v>
@@ -1830,16 +1897,16 @@
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.5</v>
+        <v>109.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
@@ -1848,10 +1915,10 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
         <v>3</v>
@@ -1863,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
         <v>15</v>
@@ -1881,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="n">
         <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>0.714</v>
+        <v>0.71</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,7 +2025,7 @@
         <v>36.7</v>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="K9" t="n">
         <v>0.459</v>
@@ -1967,25 +2034,25 @@
         <v>6.1</v>
       </c>
       <c r="M9" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P9" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R9" t="n">
         <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T9" t="n">
         <v>41</v>
@@ -2000,25 +2067,25 @@
         <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y9" t="n">
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA9" t="n">
         <v>20</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC9" t="n">
         <v>7.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,13 +2097,13 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
         <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2045,7 +2112,7 @@
         <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN9" t="n">
         <v>6</v>
@@ -2084,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" t="n">
         <v>43</v>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>0.614</v>
+        <v>0.623</v>
       </c>
       <c r="H10" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I10" t="n">
         <v>41.4</v>
       </c>
       <c r="J10" t="n">
-        <v>89.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="K10" t="n">
         <v>0.462</v>
@@ -2149,7 +2216,7 @@
         <v>9.4</v>
       </c>
       <c r="M10" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="N10" t="n">
         <v>0.351</v>
@@ -2164,13 +2231,13 @@
         <v>0.748</v>
       </c>
       <c r="R10" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="U10" t="n">
         <v>22.7</v>
@@ -2182,7 +2249,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y10" t="n">
         <v>5.1</v>
@@ -2191,28 +2258,28 @@
         <v>23.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>111</v>
+        <v>110.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2275,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="n">
         <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.676</v>
+        <v>0.671</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2322,28 +2389,28 @@
         <v>36.8</v>
       </c>
       <c r="J11" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L11" t="n">
         <v>7.1</v>
       </c>
       <c r="M11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O11" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.723</v>
+        <v>0.721</v>
       </c>
       <c r="R11" t="n">
         <v>12.1</v>
@@ -2358,13 +2425,13 @@
         <v>21.6</v>
       </c>
       <c r="V11" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
       </c>
       <c r="X11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y11" t="n">
         <v>4.5</v>
@@ -2373,37 +2440,37 @@
         <v>19.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC11" t="n">
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>4</v>
       </c>
       <c r="AF11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2424,28 +2491,28 @@
         <v>27</v>
       </c>
       <c r="AR11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW11" t="n">
         <v>15</v>
       </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
         <v>4</v>
@@ -2454,7 +2521,7 @@
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
         <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2767,7 +2834,7 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J14" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
@@ -2877,34 +2944,34 @@
         <v>7.7</v>
       </c>
       <c r="M14" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
         <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R14" t="n">
         <v>10.9</v>
       </c>
       <c r="S14" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
         <v>24</v>
       </c>
       <c r="V14" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W14" t="n">
         <v>8.1</v>
@@ -2922,13 +2989,13 @@
         <v>22.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.4</v>
+        <v>108.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,13 +3007,13 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2988,13 +3055,13 @@
         <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" t="n">
-        <v>0.257</v>
+        <v>0.261</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.452</v>
@@ -3065,13 +3132,13 @@
         <v>0.354</v>
       </c>
       <c r="O15" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R15" t="n">
         <v>10.4</v>
@@ -3089,37 +3156,37 @@
         <v>15.4</v>
       </c>
       <c r="W15" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X15" t="n">
         <v>4.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
         <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB15" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
         <v>16</v>
@@ -3128,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3143,7 +3210,7 @@
         <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
@@ -3152,7 +3219,7 @@
         <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS15" t="n">
         <v>12</v>
@@ -3167,19 +3234,19 @@
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
       </c>
       <c r="BA15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
         <v>57</v>
       </c>
       <c r="G16" t="n">
-        <v>0.186</v>
+        <v>0.174</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="J16" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L16" t="n">
         <v>5.4</v>
@@ -3244,16 +3311,16 @@
         <v>15.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P16" t="n">
         <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.723</v>
+        <v>0.72</v>
       </c>
       <c r="R16" t="n">
         <v>9.1</v>
@@ -3274,7 +3341,7 @@
         <v>7.1</v>
       </c>
       <c r="X16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y16" t="n">
         <v>4</v>
@@ -3286,13 +3353,13 @@
         <v>20.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>92.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>28</v>
@@ -3331,7 +3398,7 @@
         <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW16" t="n">
         <v>18</v>
@@ -3361,7 +3428,7 @@
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n">
-        <v>0.348</v>
+        <v>0.353</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
         <v>5.6</v>
@@ -3432,25 +3499,25 @@
         <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R17" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S17" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
@@ -3459,28 +3526,28 @@
         <v>4.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z17" t="n">
         <v>21.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.4</v>
+        <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>24</v>
@@ -3501,10 +3568,10 @@
         <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
         <v>24</v>
@@ -3522,13 +3589,13 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -3656,19 +3723,19 @@
         <v>-6.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3704,7 +3771,7 @@
         <v>21</v>
       </c>
       <c r="AT18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
         <v>41</v>
       </c>
       <c r="G19" t="n">
-        <v>0.423</v>
+        <v>0.414</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J19" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L19" t="n">
         <v>5.8</v>
@@ -3790,7 +3857,7 @@
         <v>16.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="O19" t="n">
         <v>20.2</v>
@@ -3802,10 +3869,10 @@
         <v>0.731</v>
       </c>
       <c r="R19" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S19" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T19" t="n">
         <v>42.3</v>
@@ -3817,31 +3884,31 @@
         <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.9</v>
+        <v>-5.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
         <v>20</v>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3862,19 +3929,19 @@
         <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
         <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
         <v>22</v>
@@ -3892,7 +3959,7 @@
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
@@ -3913,7 +3980,7 @@
         <v>27</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
@@ -4038,7 +4105,7 @@
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" t="n">
-        <v>0.271</v>
+        <v>0.275</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4142,7 +4209,7 @@
         <v>35.4</v>
       </c>
       <c r="J21" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K21" t="n">
         <v>0.438</v>
@@ -4154,22 +4221,22 @@
         <v>17.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O21" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P21" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R21" t="n">
         <v>12.1</v>
       </c>
       <c r="S21" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
         <v>41.7</v>
@@ -4178,13 +4245,13 @@
         <v>18.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W21" t="n">
         <v>6.2</v>
       </c>
       <c r="X21" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y21" t="n">
         <v>5.2</v>
@@ -4193,16 +4260,16 @@
         <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB21" t="n">
         <v>95.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.1</v>
+        <v>-7</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,19 +4281,19 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="n">
         <v>16</v>
@@ -4244,10 +4311,10 @@
         <v>25</v>
       </c>
       <c r="AR21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
@@ -4417,7 +4484,7 @@
         <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
         <v>3</v>
@@ -4438,10 +4505,10 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
         <v>25</v>
@@ -4450,7 +4517,7 @@
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -4488,43 +4555,43 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="n">
         <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K23" t="n">
         <v>0.46</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.316</v>
+        <v>0.318</v>
       </c>
       <c r="O23" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P23" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q23" t="n">
         <v>0.705</v>
@@ -4539,7 +4606,7 @@
         <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
         <v>14.7</v>
@@ -4557,19 +4624,19 @@
         <v>19.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
         <v>96.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF23" t="n">
         <v>16</v>
@@ -4578,16 +4645,16 @@
         <v>16</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4620,7 +4687,7 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -4670,34 +4737,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" t="n">
         <v>47</v>
       </c>
       <c r="F24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.671</v>
+        <v>0.681</v>
       </c>
       <c r="H24" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I24" t="n">
         <v>41.5</v>
       </c>
       <c r="J24" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K24" t="n">
         <v>0.499</v>
       </c>
       <c r="L24" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="N24" t="n">
         <v>0.391</v>
@@ -4709,7 +4776,7 @@
         <v>23.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
@@ -4727,10 +4794,10 @@
         <v>14.4</v>
       </c>
       <c r="W24" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X24" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y24" t="n">
         <v>3.7</v>
@@ -4742,31 +4809,31 @@
         <v>20.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="AC24" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG24" t="n">
         <v>5</v>
       </c>
-      <c r="AD24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>6</v>
-      </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4781,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -4793,16 +4860,16 @@
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4811,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ24" t="n">
         <v>8</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
         <v>37</v>
       </c>
       <c r="F25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>0.521</v>
+        <v>0.529</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J25" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
@@ -4885,10 +4952,10 @@
         <v>0.374</v>
       </c>
       <c r="O25" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P25" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q25" t="n">
         <v>0.768</v>
@@ -4900,7 +4967,7 @@
         <v>29.6</v>
       </c>
       <c r="T25" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U25" t="n">
         <v>21.1</v>
@@ -4909,10 +4976,10 @@
         <v>13</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y25" t="n">
         <v>3.7</v>
@@ -4921,25 +4988,25 @@
         <v>19.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
@@ -4951,7 +5018,7 @@
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4960,16 +5027,16 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>22</v>
       </c>
       <c r="AP25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>20</v>
@@ -4981,10 +5048,10 @@
         <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
@@ -4993,16 +5060,16 @@
         <v>21</v>
       </c>
       <c r="AY25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
         <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" t="n">
         <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="n">
-        <v>0.443</v>
+        <v>0.449</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,37 +5119,37 @@
         <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M26" t="n">
         <v>16.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="P26" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="R26" t="n">
         <v>10.4</v>
       </c>
       <c r="S26" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T26" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="U26" t="n">
         <v>19</v>
@@ -5097,22 +5164,22 @@
         <v>4.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z26" t="n">
         <v>22.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB26" t="n">
         <v>101.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,16 +5191,16 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
@@ -5142,22 +5209,22 @@
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>26</v>
@@ -5169,7 +5236,7 @@
         <v>29</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
         <v>6</v>
@@ -5324,7 +5391,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5336,7 +5403,7 @@
         <v>13</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="n">
         <v>54</v>
       </c>
       <c r="G28" t="n">
-        <v>0.239</v>
+        <v>0.229</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,10 +5483,10 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>85.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
@@ -5428,7 +5495,7 @@
         <v>11.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.341</v>
+        <v>0.338</v>
       </c>
       <c r="O28" t="n">
         <v>17.7</v>
@@ -5437,22 +5504,22 @@
         <v>23</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S28" t="n">
         <v>32.7</v>
       </c>
       <c r="T28" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U28" t="n">
         <v>21.5</v>
       </c>
       <c r="V28" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W28" t="n">
         <v>6.4</v>
@@ -5464,7 +5531,7 @@
         <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA28" t="n">
         <v>19.8</v>
@@ -5473,10 +5540,10 @@
         <v>97.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.699999999999999</v>
+        <v>-9</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5509,13 +5576,13 @@
         <v>27</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>10</v>
@@ -5533,7 +5600,7 @@
         <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5542,7 +5609,7 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF29" t="n">
         <v>16</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5733,7 +5800,7 @@
         <v>11</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5922,7 @@
         <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6031,7 +6098,7 @@
         <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>2</v>
@@ -6049,10 +6116,10 @@
         <v>14</v>
       </c>
       <c r="AM31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6067,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-24-2007-08</t>
+          <t>2008-03-24</t>
         </is>
       </c>
     </row>
